--- a/Code/Results/Cases/Case_1_113/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_113/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.17556678685099</v>
+        <v>7.316871309442218</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.455957375337131</v>
+        <v>3.189181996700795</v>
       </c>
       <c r="E2">
-        <v>7.538959624770625</v>
+        <v>11.83991481257103</v>
       </c>
       <c r="F2">
-        <v>20.81902661699782</v>
+        <v>17.7689967141744</v>
       </c>
       <c r="G2">
-        <v>29.7340362709527</v>
+        <v>19.69113168747871</v>
       </c>
       <c r="H2">
-        <v>8.228314797859769</v>
+        <v>10.74234297618823</v>
       </c>
       <c r="I2">
-        <v>13.45451449525058</v>
+        <v>17.48216143757114</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>23.71681752458085</v>
+        <v>15.48507493782207</v>
       </c>
       <c r="N2">
-        <v>14.76023186779278</v>
+        <v>16.88662398178348</v>
       </c>
       <c r="O2">
-        <v>15.44120274818357</v>
+        <v>15.24879703180811</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.606575989672281</v>
+        <v>7.114463285498944</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.352320886211527</v>
+        <v>3.17571788092511</v>
       </c>
       <c r="E3">
-        <v>7.506736249852749</v>
+        <v>11.94500491597421</v>
       </c>
       <c r="F3">
-        <v>19.53113234158541</v>
+        <v>17.44253122203997</v>
       </c>
       <c r="G3">
-        <v>27.64334934773143</v>
+        <v>18.9383305960812</v>
       </c>
       <c r="H3">
-        <v>7.921140341888753</v>
+        <v>10.71860679258682</v>
       </c>
       <c r="I3">
-        <v>13.41914278205068</v>
+        <v>17.51951777260732</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>22.22080510723039</v>
+        <v>14.89619757031976</v>
       </c>
       <c r="N3">
-        <v>14.47209992715147</v>
+        <v>16.82698049310977</v>
       </c>
       <c r="O3">
-        <v>14.57870558871278</v>
+        <v>15.08326907121727</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.236531290773913</v>
+        <v>6.987625936183285</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.293559720104191</v>
+        <v>3.167868153985334</v>
       </c>
       <c r="E4">
-        <v>7.5119912903474</v>
+        <v>12.01527812415634</v>
       </c>
       <c r="F4">
-        <v>18.71165613037641</v>
+        <v>17.24495797617388</v>
       </c>
       <c r="G4">
-        <v>26.29691589535713</v>
+        <v>18.46764616574811</v>
       </c>
       <c r="H4">
-        <v>7.73285539890049</v>
+        <v>10.70651598236726</v>
       </c>
       <c r="I4">
-        <v>13.40505845234647</v>
+        <v>17.54625764350017</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>21.25124926622063</v>
+        <v>14.52400348487572</v>
       </c>
       <c r="N4">
-        <v>14.29566241226152</v>
+        <v>16.79229550405912</v>
       </c>
       <c r="O4">
-        <v>14.03523349172502</v>
+        <v>14.9854579227778</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.080546715900287</v>
+        <v>6.935367121982734</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.269351293377732</v>
+        <v>3.164776639672665</v>
       </c>
       <c r="E5">
-        <v>7.51999499756475</v>
+        <v>12.04534546919121</v>
       </c>
       <c r="F5">
-        <v>18.37075795967517</v>
+        <v>17.16529244964808</v>
       </c>
       <c r="G5">
-        <v>25.73244426790396</v>
+        <v>18.27406653570332</v>
       </c>
       <c r="H5">
-        <v>7.656312267196082</v>
+        <v>10.70221672634342</v>
       </c>
       <c r="I5">
-        <v>13.40121728808246</v>
+        <v>17.55811146265675</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20.84332121431652</v>
+        <v>14.36988269699774</v>
       </c>
       <c r="N5">
-        <v>14.22396916972964</v>
+        <v>16.7786585692986</v>
       </c>
       <c r="O5">
-        <v>13.81051948074018</v>
+        <v>14.94660722110544</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.054332743075777</v>
+        <v>6.926657251637796</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.265316748821596</v>
+        <v>3.164269844842504</v>
       </c>
       <c r="E6">
-        <v>7.521664857437107</v>
+        <v>12.0504240961583</v>
       </c>
       <c r="F6">
-        <v>18.313741134258</v>
+        <v>17.15211881655577</v>
       </c>
       <c r="G6">
-        <v>25.63776111804746</v>
+        <v>18.24182681649224</v>
       </c>
       <c r="H6">
-        <v>7.643616678625449</v>
+        <v>10.70154084606153</v>
       </c>
       <c r="I6">
-        <v>13.40069344908093</v>
+        <v>17.56013760762591</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20.77481077988061</v>
+        <v>14.34415012707548</v>
       </c>
       <c r="N6">
-        <v>14.21207959888211</v>
+        <v>16.77642451387213</v>
       </c>
       <c r="O6">
-        <v>13.77301824051144</v>
+        <v>14.94021829829171</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.234448614022833</v>
+        <v>6.986923371608748</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.293234250821933</v>
+        <v>3.167826023165192</v>
       </c>
       <c r="E7">
-        <v>7.512076089352286</v>
+        <v>12.01567785050175</v>
       </c>
       <c r="F7">
-        <v>18.70708641813949</v>
+        <v>17.24387998602652</v>
       </c>
       <c r="G7">
-        <v>26.28936714564284</v>
+        <v>18.46504216292255</v>
       </c>
       <c r="H7">
-        <v>7.731822221028571</v>
+        <v>10.70645545495108</v>
       </c>
       <c r="I7">
-        <v>13.40499899276044</v>
+        <v>17.54641363200465</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>21.24579972551493</v>
+        <v>14.52193456150119</v>
       </c>
       <c r="N7">
-        <v>14.294694580289</v>
+        <v>16.79210956366079</v>
       </c>
       <c r="O7">
-        <v>14.03221568953972</v>
+        <v>14.98492982684629</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.983676431770029</v>
+        <v>7.247653451505213</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.41949166447952</v>
+        <v>3.184454422200374</v>
       </c>
       <c r="E8">
-        <v>7.522400785436899</v>
+        <v>11.8749480201321</v>
       </c>
       <c r="F8">
-        <v>20.38105412137752</v>
+        <v>17.65590825575307</v>
       </c>
       <c r="G8">
-        <v>29.02616894165848</v>
+        <v>19.43352521717388</v>
       </c>
       <c r="H8">
-        <v>8.122393707053595</v>
+        <v>10.73364555009104</v>
       </c>
       <c r="I8">
-        <v>13.44072178613742</v>
+        <v>17.49425315342199</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>23.21156888952959</v>
+        <v>15.2843602431894</v>
       </c>
       <c r="N8">
-        <v>14.66083636830437</v>
+        <v>16.86566347569449</v>
       </c>
       <c r="O8">
-        <v>15.14683132272759</v>
+        <v>15.19095804453343</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.28862268516997</v>
+        <v>7.735745538417346</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.670651852040284</v>
+        <v>3.220264320616659</v>
       </c>
       <c r="E9">
-        <v>7.758574311937151</v>
+        <v>11.64525382453148</v>
       </c>
       <c r="F9">
-        <v>23.65888519203273</v>
+        <v>18.48131686033595</v>
       </c>
       <c r="G9">
-        <v>33.89795161893166</v>
+        <v>21.25164017988195</v>
       </c>
       <c r="H9">
-        <v>8.886812750265877</v>
+        <v>10.80649337930132</v>
       </c>
       <c r="I9">
-        <v>13.57218275882938</v>
+        <v>17.42209832231264</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>26.66301147590916</v>
+        <v>16.68663969492543</v>
       </c>
       <c r="N9">
-        <v>15.37893992070127</v>
+        <v>17.02478619747725</v>
       </c>
       <c r="O9">
-        <v>17.50443389271009</v>
+        <v>15.62316607782684</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.14736566675108</v>
+        <v>8.076670315651796</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.839432556669977</v>
+        <v>3.248372641749812</v>
       </c>
       <c r="E10">
-        <v>8.083071774786916</v>
+        <v>11.50564603489466</v>
       </c>
       <c r="F10">
-        <v>25.92915402794077</v>
+        <v>19.0912318315035</v>
       </c>
       <c r="G10">
-        <v>37.18189946958466</v>
+        <v>22.52163339266932</v>
       </c>
       <c r="H10">
-        <v>9.442944077047933</v>
+        <v>10.87164635224054</v>
       </c>
       <c r="I10">
-        <v>13.70717663234093</v>
+        <v>17.38738773103536</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>28.95587449915437</v>
+        <v>17.65039902128902</v>
       </c>
       <c r="N10">
-        <v>15.90189230898241</v>
+        <v>17.15010144464906</v>
       </c>
       <c r="O10">
-        <v>19.20987963120774</v>
+        <v>15.95489685016612</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.51643183810295</v>
+        <v>8.227280628616018</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.912671099043165</v>
+        <v>3.261515914274876</v>
       </c>
       <c r="E11">
-        <v>8.266261147511422</v>
+        <v>11.44867009302452</v>
       </c>
       <c r="F11">
-        <v>26.91836639508689</v>
+        <v>19.36800455965048</v>
       </c>
       <c r="G11">
-        <v>38.61373945410757</v>
+        <v>23.08227594161792</v>
       </c>
       <c r="H11">
-        <v>9.694033400602176</v>
+        <v>10.90374144186094</v>
       </c>
       <c r="I11">
-        <v>13.77708440042691</v>
+        <v>17.37555240760855</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>29.9471772412645</v>
+        <v>18.07271604467358</v>
       </c>
       <c r="N11">
-        <v>16.13787330657633</v>
+        <v>17.20878743611432</v>
       </c>
       <c r="O11">
-        <v>19.95250003546517</v>
+        <v>16.10823251808412</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.6530968212749</v>
+        <v>8.283621535047754</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.9398875034317</v>
+        <v>3.26654117368343</v>
       </c>
       <c r="E12">
-        <v>8.340881932920489</v>
+        <v>11.42805146839092</v>
       </c>
       <c r="F12">
-        <v>27.28681622565442</v>
+        <v>19.47259842506845</v>
       </c>
       <c r="G12">
-        <v>39.14721678569624</v>
+        <v>23.29192305043122</v>
       </c>
       <c r="H12">
-        <v>9.788798514635671</v>
+        <v>10.91624142863476</v>
       </c>
       <c r="I12">
-        <v>13.80478743905669</v>
+        <v>17.37163741810523</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>30.31521377530956</v>
+        <v>18.23020492707864</v>
       </c>
       <c r="N12">
-        <v>16.22688771895369</v>
+        <v>17.23123872448466</v>
       </c>
       <c r="O12">
-        <v>20.22905557577745</v>
+        <v>16.16659053563075</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.62380090826385</v>
+        <v>8.271519002218316</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.934049092179159</v>
+        <v>3.265456801069579</v>
       </c>
       <c r="E13">
-        <v>8.324575966001262</v>
+        <v>11.43244921662885</v>
       </c>
       <c r="F13">
-        <v>27.20773511678654</v>
+        <v>19.45008357150694</v>
       </c>
       <c r="G13">
-        <v>39.03270779486069</v>
+        <v>23.24689282431257</v>
       </c>
       <c r="H13">
-        <v>9.768403812147611</v>
+        <v>10.91353404929593</v>
       </c>
       <c r="I13">
-        <v>13.79876625854829</v>
+        <v>17.37245540555017</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>30.23627575794375</v>
+        <v>18.19639681326912</v>
       </c>
       <c r="N13">
-        <v>16.20773336522181</v>
+        <v>17.22639350447902</v>
       </c>
       <c r="O13">
-        <v>20.16969964815698</v>
+        <v>16.15400994873678</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.52773725372287</v>
+        <v>8.231929954973477</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.914920621112787</v>
+        <v>3.261928397633393</v>
       </c>
       <c r="E14">
-        <v>8.27229444981395</v>
+        <v>11.44695450675789</v>
       </c>
       <c r="F14">
-        <v>26.94880136606045</v>
+        <v>19.37661449375007</v>
       </c>
       <c r="G14">
-        <v>38.6578027095488</v>
+        <v>23.0995780170518</v>
       </c>
       <c r="H14">
-        <v>9.701836342217025</v>
+        <v>10.90476292543789</v>
       </c>
       <c r="I14">
-        <v>13.77933884539656</v>
+        <v>17.37521897138886</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>29.97760253372385</v>
+        <v>18.08572213762911</v>
       </c>
       <c r="N14">
-        <v>16.14520391074122</v>
+        <v>17.21063002134921</v>
       </c>
       <c r="O14">
-        <v>19.97534509839134</v>
+        <v>16.11302811405112</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.46849313621953</v>
+        <v>8.207589063223624</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.903136275462718</v>
+        <v>3.259773330934585</v>
       </c>
       <c r="E15">
-        <v>8.240957306034044</v>
+        <v>11.45596456097947</v>
       </c>
       <c r="F15">
-        <v>26.78940073047071</v>
+        <v>19.33158134470022</v>
       </c>
       <c r="G15">
-        <v>38.42703185467358</v>
+        <v>23.00899207163845</v>
       </c>
       <c r="H15">
-        <v>9.661019480533231</v>
+        <v>10.89943523702292</v>
       </c>
       <c r="I15">
-        <v>13.76759944933161</v>
+        <v>17.37698548807495</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>29.81820366201937</v>
+        <v>18.01761057528815</v>
       </c>
       <c r="N15">
-        <v>16.10685566021867</v>
+        <v>17.20100374827623</v>
       </c>
       <c r="O15">
-        <v>19.85569421153216</v>
+        <v>16.08796206468434</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.12281294692142</v>
+        <v>8.066733255632673</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.83457425136306</v>
+        <v>3.247520611442271</v>
       </c>
       <c r="E16">
-        <v>8.071828771308596</v>
+        <v>11.50950249320103</v>
       </c>
       <c r="F16">
-        <v>25.86364013756534</v>
+        <v>19.07312034253463</v>
       </c>
       <c r="G16">
-        <v>37.08709272660873</v>
+        <v>22.48463266668663</v>
       </c>
       <c r="H16">
-        <v>9.426492548900605</v>
+        <v>10.86959771173092</v>
       </c>
       <c r="I16">
-        <v>13.70277977890592</v>
+        <v>17.38824061960806</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>28.89005701023154</v>
+        <v>17.6224651415564</v>
       </c>
       <c r="N16">
-        <v>15.88642568724573</v>
+        <v>17.14629883881039</v>
       </c>
       <c r="O16">
-        <v>19.16068923724671</v>
+        <v>15.94492008265972</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.9052290630029</v>
+        <v>7.979140175604046</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.791600385790364</v>
+        <v>3.240093130123884</v>
       </c>
       <c r="E17">
-        <v>7.977301833206027</v>
+        <v>11.54403182323489</v>
       </c>
       <c r="F17">
-        <v>25.28464155166435</v>
+        <v>18.91430430752788</v>
       </c>
       <c r="G17">
-        <v>36.24932108852922</v>
+        <v>22.15842928067851</v>
       </c>
       <c r="H17">
-        <v>9.282096361975203</v>
+        <v>10.851917766588</v>
       </c>
       <c r="I17">
-        <v>13.66519840320797</v>
+        <v>17.39615689990527</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>28.30747969872539</v>
+        <v>17.37584295387903</v>
       </c>
       <c r="N17">
-        <v>15.7506567511381</v>
+        <v>17.11315990029458</v>
       </c>
       <c r="O17">
-        <v>18.72590242414558</v>
+        <v>15.85775070000464</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.77804850790237</v>
+        <v>7.92834001809814</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.766550075029441</v>
+        <v>3.235854799689438</v>
       </c>
       <c r="E18">
-        <v>7.926276994349207</v>
+        <v>11.56450597109979</v>
       </c>
       <c r="F18">
-        <v>24.94751003831299</v>
+        <v>18.82290008745323</v>
       </c>
       <c r="G18">
-        <v>35.7616039120325</v>
+        <v>21.96920788745274</v>
       </c>
       <c r="H18">
-        <v>9.198866700737092</v>
+        <v>10.84198041742533</v>
       </c>
       <c r="I18">
-        <v>13.64438215035828</v>
+        <v>17.401082497563</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>27.96752111014647</v>
+        <v>17.23248275947721</v>
       </c>
       <c r="N18">
-        <v>15.67238998449332</v>
+        <v>17.09425815289856</v>
       </c>
       <c r="O18">
-        <v>18.47269253505904</v>
+        <v>15.80784524003524</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.73463805767581</v>
+        <v>7.911069545430065</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.758011578069767</v>
+        <v>3.234425665495095</v>
       </c>
       <c r="E19">
-        <v>7.909570121544185</v>
+        <v>11.57154305211668</v>
       </c>
       <c r="F19">
-        <v>24.83265444406573</v>
+        <v>18.79194594734231</v>
       </c>
       <c r="G19">
-        <v>35.59546054493774</v>
+        <v>21.90487285506553</v>
       </c>
       <c r="H19">
-        <v>9.170657759114947</v>
+        <v>10.83865579856314</v>
       </c>
       <c r="I19">
-        <v>13.63747115426929</v>
+        <v>17.40281422773692</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>27.85157704427875</v>
+        <v>17.18368804303712</v>
       </c>
       <c r="N19">
-        <v>15.64586222121771</v>
+        <v>17.08788603787486</v>
       </c>
       <c r="O19">
-        <v>18.38641876409723</v>
+        <v>15.79098968204241</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.92860147817427</v>
+        <v>7.98850832934135</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.796209544297413</v>
+        <v>3.24088032636207</v>
       </c>
       <c r="E20">
-        <v>7.987017057340909</v>
+        <v>11.54029246525577</v>
       </c>
       <c r="F20">
-        <v>25.3467011834412</v>
+        <v>18.93121734783825</v>
       </c>
       <c r="G20">
-        <v>36.33910777031375</v>
+        <v>22.19332108543827</v>
       </c>
       <c r="H20">
-        <v>9.297486240734393</v>
+        <v>10.85377589705065</v>
       </c>
       <c r="I20">
-        <v>13.66911618479174</v>
+        <v>17.39527567318446</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>28.37000003035192</v>
+        <v>17.40225345435005</v>
       </c>
       <c r="N20">
-        <v>15.76512834171201</v>
+        <v>17.11667124769506</v>
       </c>
       <c r="O20">
-        <v>18.77250957590198</v>
+        <v>15.86700641989983</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.55603730557433</v>
+        <v>8.243577356548213</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.920553218097366</v>
+        <v>3.262963492493508</v>
       </c>
       <c r="E21">
-        <v>8.287507513879554</v>
+        <v>11.44266783966879</v>
       </c>
       <c r="F21">
-        <v>27.02502218381933</v>
+        <v>19.39820084803479</v>
       </c>
       <c r="G21">
-        <v>38.76815667008034</v>
+        <v>23.14292149251816</v>
       </c>
       <c r="H21">
-        <v>9.721397710836024</v>
+        <v>10.90732987777703</v>
       </c>
       <c r="I21">
-        <v>13.78501169702255</v>
+        <v>17.37439187879292</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>30.05377977363337</v>
+        <v>18.11829687527063</v>
       </c>
       <c r="N21">
-        <v>16.16358027446668</v>
+        <v>17.21525405326323</v>
       </c>
       <c r="O21">
-        <v>20.03255720936613</v>
+        <v>16.12505796416348</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.94808480742256</v>
+        <v>8.406227477560847</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.998800198056951</v>
+        <v>3.277675508410501</v>
       </c>
       <c r="E22">
-        <v>8.566073441444585</v>
+        <v>11.38445048662634</v>
       </c>
       <c r="F22">
-        <v>28.08616108493759</v>
+        <v>19.70210449780863</v>
       </c>
       <c r="G22">
-        <v>40.30490685777092</v>
+        <v>23.74798400932871</v>
       </c>
       <c r="H22">
-        <v>9.996589639694816</v>
+        <v>10.94434522721727</v>
       </c>
       <c r="I22">
-        <v>13.86793061350979</v>
+        <v>17.364045759998</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>31.11144690166519</v>
+        <v>18.57204514451246</v>
       </c>
       <c r="N22">
-        <v>16.42194265220085</v>
+        <v>17.28100725277728</v>
       </c>
       <c r="O22">
-        <v>20.82897763785739</v>
+        <v>16.29539227793583</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.7404861639984</v>
+        <v>8.319803488872859</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.957316865601962</v>
+        <v>3.269798905034684</v>
       </c>
       <c r="E23">
-        <v>8.390528950102865</v>
+        <v>11.41500521251405</v>
       </c>
       <c r="F23">
-        <v>27.52303781959381</v>
+        <v>19.54006101747893</v>
       </c>
       <c r="G23">
-        <v>39.4892897566068</v>
+        <v>23.42653345300872</v>
       </c>
       <c r="H23">
-        <v>9.849895791880007</v>
+        <v>10.92440753856746</v>
       </c>
       <c r="I23">
-        <v>13.82301657152041</v>
+        <v>17.36926617036488</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>30.55083112481473</v>
+        <v>18.33120786993675</v>
       </c>
       <c r="N23">
-        <v>16.28425954814552</v>
+        <v>17.24579688639435</v>
       </c>
       <c r="O23">
-        <v>20.40635144234034</v>
+        <v>16.20434619223693</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.91804131585037</v>
+        <v>7.984274359230964</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.794126814769112</v>
+        <v>3.240524335587286</v>
       </c>
       <c r="E24">
-        <v>7.982614474538353</v>
+        <v>11.54198109037941</v>
       </c>
       <c r="F24">
-        <v>25.31865729384905</v>
+        <v>18.92357126098311</v>
       </c>
       <c r="G24">
-        <v>36.29853413586218</v>
+        <v>22.17755172635383</v>
       </c>
       <c r="H24">
-        <v>9.290529140759164</v>
+        <v>10.85293512834662</v>
       </c>
       <c r="I24">
-        <v>13.66734249641215</v>
+        <v>17.39567290936553</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>28.34175025352747</v>
+        <v>17.39031816003133</v>
       </c>
       <c r="N24">
-        <v>15.75858638859053</v>
+        <v>17.11508329844723</v>
       </c>
       <c r="O24">
-        <v>18.75144859909308</v>
+        <v>15.86282125239364</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.953189293451125</v>
+        <v>7.606571762422146</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.605422335138154</v>
+        <v>3.210249440424133</v>
       </c>
       <c r="E25">
-        <v>7.669336056620677</v>
+        <v>11.70234217772378</v>
       </c>
       <c r="F25">
-        <v>22.78354466759639</v>
+        <v>18.25690375644544</v>
       </c>
       <c r="G25">
-        <v>32.63245994814189</v>
+        <v>20.77028412591103</v>
       </c>
       <c r="H25">
-        <v>8.680694708568067</v>
+        <v>10.78472132724196</v>
       </c>
       <c r="I25">
-        <v>13.52993430873438</v>
+        <v>17.43839844679339</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>25.77224191095321</v>
+        <v>16.31832871937795</v>
       </c>
       <c r="N25">
-        <v>15.18516251143232</v>
+        <v>16.98021316042236</v>
       </c>
       <c r="O25">
-        <v>16.84624685021897</v>
+        <v>15.50352933372446</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_113/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_113/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.316871309442218</v>
+        <v>9.175566786851006</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.189181996700795</v>
+        <v>2.455957375337181</v>
       </c>
       <c r="E2">
-        <v>11.83991481257103</v>
+        <v>7.538959624770627</v>
       </c>
       <c r="F2">
-        <v>17.7689967141744</v>
+        <v>20.81902661699782</v>
       </c>
       <c r="G2">
-        <v>19.69113168747871</v>
+        <v>29.73403627095273</v>
       </c>
       <c r="H2">
-        <v>10.74234297618823</v>
+        <v>8.228314797859822</v>
       </c>
       <c r="I2">
-        <v>17.48216143757114</v>
+        <v>13.45451449525049</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.48507493782207</v>
+        <v>23.7168175245808</v>
       </c>
       <c r="N2">
-        <v>16.88662398178348</v>
+        <v>14.76023186779273</v>
       </c>
       <c r="O2">
-        <v>15.24879703180811</v>
+        <v>15.44120274818357</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.114463285498944</v>
+        <v>8.606575989672347</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.17571788092511</v>
+        <v>2.352320886211513</v>
       </c>
       <c r="E3">
-        <v>11.94500491597421</v>
+        <v>7.506736249852715</v>
       </c>
       <c r="F3">
-        <v>17.44253122203997</v>
+        <v>19.53113234158539</v>
       </c>
       <c r="G3">
-        <v>18.9383305960812</v>
+        <v>27.64334934773148</v>
       </c>
       <c r="H3">
-        <v>10.71860679258682</v>
+        <v>7.921140341888721</v>
       </c>
       <c r="I3">
-        <v>17.51951777260732</v>
+        <v>13.41914278205061</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.89619757031976</v>
+        <v>22.22080510723043</v>
       </c>
       <c r="N3">
-        <v>16.82698049310977</v>
+        <v>14.47209992715146</v>
       </c>
       <c r="O3">
-        <v>15.08326907121727</v>
+        <v>14.57870558871275</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.987625936183285</v>
+        <v>8.236531290773906</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.167868153985334</v>
+        <v>2.293559720104116</v>
       </c>
       <c r="E4">
-        <v>12.01527812415634</v>
+        <v>7.511991290347404</v>
       </c>
       <c r="F4">
-        <v>17.24495797617388</v>
+        <v>18.71165613037642</v>
       </c>
       <c r="G4">
-        <v>18.46764616574811</v>
+        <v>26.29691589535719</v>
       </c>
       <c r="H4">
-        <v>10.70651598236726</v>
+        <v>7.732855398900533</v>
       </c>
       <c r="I4">
-        <v>17.54625764350017</v>
+        <v>13.40505845234646</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.52400348487572</v>
+        <v>21.25124926622063</v>
       </c>
       <c r="N4">
-        <v>16.79229550405912</v>
+        <v>14.29566241226151</v>
       </c>
       <c r="O4">
-        <v>14.9854579227778</v>
+        <v>14.03523349172502</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.935367121982734</v>
+        <v>8.080546715900306</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.164776639672665</v>
+        <v>2.26935129337762</v>
       </c>
       <c r="E5">
-        <v>12.04534546919121</v>
+        <v>7.519994997564796</v>
       </c>
       <c r="F5">
-        <v>17.16529244964808</v>
+        <v>18.37075795967516</v>
       </c>
       <c r="G5">
-        <v>18.27406653570332</v>
+        <v>25.73244426790387</v>
       </c>
       <c r="H5">
-        <v>10.70221672634342</v>
+        <v>7.656312267196068</v>
       </c>
       <c r="I5">
-        <v>17.55811146265675</v>
+        <v>13.40121728808241</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.36988269699774</v>
+        <v>20.84332121431648</v>
       </c>
       <c r="N5">
-        <v>16.7786585692986</v>
+        <v>14.22396916972965</v>
       </c>
       <c r="O5">
-        <v>14.94660722110544</v>
+        <v>13.81051948074017</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.926657251637796</v>
+        <v>8.054332743075756</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.164269844842504</v>
+        <v>2.265316748821541</v>
       </c>
       <c r="E6">
-        <v>12.0504240961583</v>
+        <v>7.521664857437162</v>
       </c>
       <c r="F6">
-        <v>17.15211881655577</v>
+        <v>18.31374113425798</v>
       </c>
       <c r="G6">
-        <v>18.24182681649224</v>
+        <v>25.63776111804751</v>
       </c>
       <c r="H6">
-        <v>10.70154084606153</v>
+        <v>7.643616678625419</v>
       </c>
       <c r="I6">
-        <v>17.56013760762591</v>
+        <v>13.40069344908091</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.34415012707548</v>
+        <v>20.77481077988063</v>
       </c>
       <c r="N6">
-        <v>16.77642451387213</v>
+        <v>14.21207959888207</v>
       </c>
       <c r="O6">
-        <v>14.94021829829171</v>
+        <v>13.77301824051142</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.986923371608748</v>
+        <v>8.234448614022813</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.167826023165192</v>
+        <v>2.293234250821858</v>
       </c>
       <c r="E7">
-        <v>12.01567785050175</v>
+        <v>7.512076089352281</v>
       </c>
       <c r="F7">
-        <v>17.24387998602652</v>
+        <v>18.70708641813947</v>
       </c>
       <c r="G7">
-        <v>18.46504216292255</v>
+        <v>26.28936714564286</v>
       </c>
       <c r="H7">
-        <v>10.70645545495108</v>
+        <v>7.731822221028517</v>
       </c>
       <c r="I7">
-        <v>17.54641363200465</v>
+        <v>13.40499899276041</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.52193456150119</v>
+        <v>21.24579972551495</v>
       </c>
       <c r="N7">
-        <v>16.79210956366079</v>
+        <v>14.29469458028897</v>
       </c>
       <c r="O7">
-        <v>14.98492982684629</v>
+        <v>14.0322156895397</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.247653451505213</v>
+        <v>8.983676431770053</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.184454422200374</v>
+        <v>2.419491664479565</v>
       </c>
       <c r="E8">
-        <v>11.8749480201321</v>
+        <v>7.522400785436821</v>
       </c>
       <c r="F8">
-        <v>17.65590825575307</v>
+        <v>20.38105412137752</v>
       </c>
       <c r="G8">
-        <v>19.43352521717388</v>
+        <v>29.02616894165849</v>
       </c>
       <c r="H8">
-        <v>10.73364555009104</v>
+        <v>8.122393707053595</v>
       </c>
       <c r="I8">
-        <v>17.49425315342199</v>
+        <v>13.44072178613737</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.2843602431894</v>
+        <v>23.2115688895296</v>
       </c>
       <c r="N8">
-        <v>16.86566347569449</v>
+        <v>14.6608363683043</v>
       </c>
       <c r="O8">
-        <v>15.19095804453343</v>
+        <v>15.14683132272758</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.735745538417346</v>
+        <v>10.28862268516996</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.220264320616659</v>
+        <v>2.670651852040367</v>
       </c>
       <c r="E9">
-        <v>11.64525382453148</v>
+        <v>7.7585743119372</v>
       </c>
       <c r="F9">
-        <v>18.48131686033595</v>
+        <v>23.65888519203272</v>
       </c>
       <c r="G9">
-        <v>21.25164017988195</v>
+        <v>33.89795161893166</v>
       </c>
       <c r="H9">
-        <v>10.80649337930132</v>
+        <v>8.886812750265891</v>
       </c>
       <c r="I9">
-        <v>17.42209832231264</v>
+        <v>13.57218275882934</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.68663969492543</v>
+        <v>26.66301147590911</v>
       </c>
       <c r="N9">
-        <v>17.02478619747725</v>
+        <v>15.37893992070126</v>
       </c>
       <c r="O9">
-        <v>15.62316607782684</v>
+        <v>17.50443389271006</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.076670315651796</v>
+        <v>11.14736566675111</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.248372641749812</v>
+        <v>2.839432556670037</v>
       </c>
       <c r="E10">
-        <v>11.50564603489466</v>
+        <v>8.083071774786903</v>
       </c>
       <c r="F10">
-        <v>19.0912318315035</v>
+        <v>25.92915402794073</v>
       </c>
       <c r="G10">
-        <v>22.52163339266932</v>
+        <v>37.18189946958461</v>
       </c>
       <c r="H10">
-        <v>10.87164635224054</v>
+        <v>9.442944077047919</v>
       </c>
       <c r="I10">
-        <v>17.38738773103536</v>
+        <v>13.70717663234086</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.65039902128902</v>
+        <v>28.95587449915433</v>
       </c>
       <c r="N10">
-        <v>17.15010144464906</v>
+        <v>15.90189230898239</v>
       </c>
       <c r="O10">
-        <v>15.95489685016612</v>
+        <v>19.20987963120772</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.227280628616018</v>
+        <v>11.51643183810296</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.261515914274876</v>
+        <v>2.912671099043184</v>
       </c>
       <c r="E11">
-        <v>11.44867009302452</v>
+        <v>8.266261147511482</v>
       </c>
       <c r="F11">
-        <v>19.36800455965048</v>
+        <v>26.91836639508693</v>
       </c>
       <c r="G11">
-        <v>23.08227594161792</v>
+        <v>38.61373945410761</v>
       </c>
       <c r="H11">
-        <v>10.90374144186094</v>
+        <v>9.69403340060216</v>
       </c>
       <c r="I11">
-        <v>17.37555240760855</v>
+        <v>13.77708440042688</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.07271604467358</v>
+        <v>29.94717724126453</v>
       </c>
       <c r="N11">
-        <v>17.20878743611432</v>
+        <v>16.13787330657633</v>
       </c>
       <c r="O11">
-        <v>16.10823251808412</v>
+        <v>19.95250003546519</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.283621535047754</v>
+        <v>11.65309682127488</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.26654117368343</v>
+        <v>2.93988750343168</v>
       </c>
       <c r="E12">
-        <v>11.42805146839092</v>
+        <v>8.340881932920489</v>
       </c>
       <c r="F12">
-        <v>19.47259842506845</v>
+        <v>27.28681622565442</v>
       </c>
       <c r="G12">
-        <v>23.29192305043122</v>
+        <v>39.14721678569631</v>
       </c>
       <c r="H12">
-        <v>10.91624142863476</v>
+        <v>9.788798514635671</v>
       </c>
       <c r="I12">
-        <v>17.37163741810523</v>
+        <v>13.8047874390567</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.23020492707864</v>
+        <v>30.31521377530957</v>
       </c>
       <c r="N12">
-        <v>17.23123872448466</v>
+        <v>16.22688771895369</v>
       </c>
       <c r="O12">
-        <v>16.16659053563075</v>
+        <v>20.22905557577746</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.271519002218316</v>
+        <v>11.62380090826387</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.265456801069579</v>
+        <v>2.934049092179245</v>
       </c>
       <c r="E13">
-        <v>11.43244921662885</v>
+        <v>8.324575966001296</v>
       </c>
       <c r="F13">
-        <v>19.45008357150694</v>
+        <v>27.2077351167866</v>
       </c>
       <c r="G13">
-        <v>23.24689282431257</v>
+        <v>39.03270779486079</v>
       </c>
       <c r="H13">
-        <v>10.91353404929593</v>
+        <v>9.768403812147596</v>
       </c>
       <c r="I13">
-        <v>17.37245540555017</v>
+        <v>13.79876625854823</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.19639681326912</v>
+        <v>30.23627575794376</v>
       </c>
       <c r="N13">
-        <v>17.22639350447902</v>
+        <v>16.20773336522181</v>
       </c>
       <c r="O13">
-        <v>16.15400994873678</v>
+        <v>20.16969964815701</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.231929954973477</v>
+        <v>11.52773725372288</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.261928397633393</v>
+        <v>2.914920621112808</v>
       </c>
       <c r="E14">
-        <v>11.44695450675789</v>
+        <v>8.272294449813939</v>
       </c>
       <c r="F14">
-        <v>19.37661449375007</v>
+        <v>26.94880136606048</v>
       </c>
       <c r="G14">
-        <v>23.0995780170518</v>
+        <v>38.65780270954883</v>
       </c>
       <c r="H14">
-        <v>10.90476292543789</v>
+        <v>9.701836342217032</v>
       </c>
       <c r="I14">
-        <v>17.37521897138886</v>
+        <v>13.77933884539655</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.08572213762911</v>
+        <v>29.97760253372385</v>
       </c>
       <c r="N14">
-        <v>17.21063002134921</v>
+        <v>16.14520391074122</v>
       </c>
       <c r="O14">
-        <v>16.11302811405112</v>
+        <v>19.97534509839137</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.207589063223624</v>
+        <v>11.46849313621951</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.259773330934585</v>
+        <v>2.903136275462804</v>
       </c>
       <c r="E15">
-        <v>11.45596456097947</v>
+        <v>8.240957306034021</v>
       </c>
       <c r="F15">
-        <v>19.33158134470022</v>
+        <v>26.78940073047073</v>
       </c>
       <c r="G15">
-        <v>23.00899207163845</v>
+        <v>38.42703185467358</v>
       </c>
       <c r="H15">
-        <v>10.89943523702292</v>
+        <v>9.661019480533231</v>
       </c>
       <c r="I15">
-        <v>17.37698548807495</v>
+        <v>13.76759944933164</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.01761057528815</v>
+        <v>29.81820366201939</v>
       </c>
       <c r="N15">
-        <v>17.20100374827623</v>
+        <v>16.10685566021867</v>
       </c>
       <c r="O15">
-        <v>16.08796206468434</v>
+        <v>19.85569421153216</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.066733255632673</v>
+        <v>11.12281294692143</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.247520611442271</v>
+        <v>2.834574251363066</v>
       </c>
       <c r="E16">
-        <v>11.50950249320103</v>
+        <v>8.071828771308578</v>
       </c>
       <c r="F16">
-        <v>19.07312034253463</v>
+        <v>25.86364013756534</v>
       </c>
       <c r="G16">
-        <v>22.48463266668663</v>
+        <v>37.08709272660865</v>
       </c>
       <c r="H16">
-        <v>10.86959771173092</v>
+        <v>9.426492548900638</v>
       </c>
       <c r="I16">
-        <v>17.38824061960806</v>
+        <v>13.70277977890589</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.6224651415564</v>
+        <v>28.89005701023153</v>
       </c>
       <c r="N16">
-        <v>17.14629883881039</v>
+        <v>15.88642568724573</v>
       </c>
       <c r="O16">
-        <v>15.94492008265972</v>
+        <v>19.16068923724668</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.979140175604046</v>
+        <v>10.90522906300285</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.240093130123884</v>
+        <v>2.791600385790358</v>
       </c>
       <c r="E17">
-        <v>11.54403182323489</v>
+        <v>7.977301833206049</v>
       </c>
       <c r="F17">
-        <v>18.91430430752788</v>
+        <v>25.28464155166435</v>
       </c>
       <c r="G17">
-        <v>22.15842928067851</v>
+        <v>36.24932108852922</v>
       </c>
       <c r="H17">
-        <v>10.851917766588</v>
+        <v>9.282096361975203</v>
       </c>
       <c r="I17">
-        <v>17.39615689990527</v>
+        <v>13.66519840320805</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.37584295387903</v>
+        <v>28.30747969872541</v>
       </c>
       <c r="N17">
-        <v>17.11315990029458</v>
+        <v>15.75065675113814</v>
       </c>
       <c r="O17">
-        <v>15.85775070000464</v>
+        <v>18.72590242414559</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.92834001809814</v>
+        <v>10.77804850790236</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.235854799689438</v>
+        <v>2.766550075029522</v>
       </c>
       <c r="E18">
-        <v>11.56450597109979</v>
+        <v>7.92627699434922</v>
       </c>
       <c r="F18">
-        <v>18.82290008745323</v>
+        <v>24.94751003831303</v>
       </c>
       <c r="G18">
-        <v>21.96920788745274</v>
+        <v>35.76160391203247</v>
       </c>
       <c r="H18">
-        <v>10.84198041742533</v>
+        <v>9.19886670073708</v>
       </c>
       <c r="I18">
-        <v>17.401082497563</v>
+        <v>13.64438215035827</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.23248275947721</v>
+        <v>27.9675211101465</v>
       </c>
       <c r="N18">
-        <v>17.09425815289856</v>
+        <v>15.67238998449331</v>
       </c>
       <c r="O18">
-        <v>15.80784524003524</v>
+        <v>18.47269253505906</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.911069545430065</v>
+        <v>10.73463805767587</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.234425665495095</v>
+        <v>2.758011578069775</v>
       </c>
       <c r="E19">
-        <v>11.57154305211668</v>
+        <v>7.909570121544145</v>
       </c>
       <c r="F19">
-        <v>18.79194594734231</v>
+        <v>24.83265444406574</v>
       </c>
       <c r="G19">
-        <v>21.90487285506553</v>
+        <v>35.59546054493778</v>
       </c>
       <c r="H19">
-        <v>10.83865579856314</v>
+        <v>9.170657759114947</v>
       </c>
       <c r="I19">
-        <v>17.40281422773692</v>
+        <v>13.63747115426926</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.18368804303712</v>
+        <v>27.85157704427878</v>
       </c>
       <c r="N19">
-        <v>17.08788603787486</v>
+        <v>15.64586222121773</v>
       </c>
       <c r="O19">
-        <v>15.79098968204241</v>
+        <v>18.38641876409723</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.98850832934135</v>
+        <v>10.92860147817428</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.24088032636207</v>
+        <v>2.796209544297352</v>
       </c>
       <c r="E20">
-        <v>11.54029246525577</v>
+        <v>7.987017057340888</v>
       </c>
       <c r="F20">
-        <v>18.93121734783825</v>
+        <v>25.34670118344118</v>
       </c>
       <c r="G20">
-        <v>22.19332108543827</v>
+        <v>36.33910777031376</v>
       </c>
       <c r="H20">
-        <v>10.85377589705065</v>
+        <v>9.297486240734413</v>
       </c>
       <c r="I20">
-        <v>17.39527567318446</v>
+        <v>13.66911618479162</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.40225345435005</v>
+        <v>28.37000003035193</v>
       </c>
       <c r="N20">
-        <v>17.11667124769506</v>
+        <v>15.76512834171197</v>
       </c>
       <c r="O20">
-        <v>15.86700641989983</v>
+        <v>18.77250957590199</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.243577356548213</v>
+        <v>11.5560373055743</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.262963492493508</v>
+        <v>2.920553218097484</v>
       </c>
       <c r="E21">
-        <v>11.44266783966879</v>
+        <v>8.287507513879564</v>
       </c>
       <c r="F21">
-        <v>19.39820084803479</v>
+        <v>27.02502218381941</v>
       </c>
       <c r="G21">
-        <v>23.14292149251816</v>
+        <v>38.76815667008043</v>
       </c>
       <c r="H21">
-        <v>10.90732987777703</v>
+        <v>9.721397710836015</v>
       </c>
       <c r="I21">
-        <v>17.37439187879292</v>
+        <v>13.7850116970226</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.11829687527063</v>
+        <v>30.0537797736334</v>
       </c>
       <c r="N21">
-        <v>17.21525405326323</v>
+        <v>16.16358027446667</v>
       </c>
       <c r="O21">
-        <v>16.12505796416348</v>
+        <v>20.03255720936618</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.406227477560847</v>
+        <v>11.94808480742259</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.277675508410501</v>
+        <v>2.998800198056937</v>
       </c>
       <c r="E22">
-        <v>11.38445048662634</v>
+        <v>8.566073441444555</v>
       </c>
       <c r="F22">
-        <v>19.70210449780863</v>
+        <v>28.08616108493755</v>
       </c>
       <c r="G22">
-        <v>23.74798400932871</v>
+        <v>40.30490685777088</v>
       </c>
       <c r="H22">
-        <v>10.94434522721727</v>
+        <v>9.996589639694852</v>
       </c>
       <c r="I22">
-        <v>17.364045759998</v>
+        <v>13.86793061350976</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.57204514451246</v>
+        <v>31.11144690166514</v>
       </c>
       <c r="N22">
-        <v>17.28100725277728</v>
+        <v>16.42194265220087</v>
       </c>
       <c r="O22">
-        <v>16.29539227793583</v>
+        <v>20.82897763785735</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.319803488872859</v>
+        <v>11.74048616399838</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.269798905034684</v>
+        <v>2.957316865601994</v>
       </c>
       <c r="E23">
-        <v>11.41500521251405</v>
+        <v>8.390528950102832</v>
       </c>
       <c r="F23">
-        <v>19.54006101747893</v>
+        <v>27.52303781959379</v>
       </c>
       <c r="G23">
-        <v>23.42653345300872</v>
+        <v>39.48928975660672</v>
       </c>
       <c r="H23">
-        <v>10.92440753856746</v>
+        <v>9.849895791880016</v>
       </c>
       <c r="I23">
-        <v>17.36926617036488</v>
+        <v>13.8230165715204</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.33120786993675</v>
+        <v>30.55083112481474</v>
       </c>
       <c r="N23">
-        <v>17.24579688639435</v>
+        <v>16.28425954814551</v>
       </c>
       <c r="O23">
-        <v>16.20434619223693</v>
+        <v>20.40635144234032</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.984274359230964</v>
+        <v>10.91804131585037</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.240524335587286</v>
+        <v>2.794126814769145</v>
       </c>
       <c r="E24">
-        <v>11.54198109037941</v>
+        <v>7.982614474538338</v>
       </c>
       <c r="F24">
-        <v>18.92357126098311</v>
+        <v>25.31865729384913</v>
       </c>
       <c r="G24">
-        <v>22.17755172635383</v>
+        <v>36.29853413586225</v>
       </c>
       <c r="H24">
-        <v>10.85293512834662</v>
+        <v>9.290529140759164</v>
       </c>
       <c r="I24">
-        <v>17.39567290936553</v>
+        <v>13.66734249641215</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.39031816003133</v>
+        <v>28.3417502535275</v>
       </c>
       <c r="N24">
-        <v>17.11508329844723</v>
+        <v>15.75858638859052</v>
       </c>
       <c r="O24">
-        <v>15.86282125239364</v>
+        <v>18.75144859909314</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.606571762422146</v>
+        <v>9.953189293451132</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.210249440424133</v>
+        <v>2.605422335138154</v>
       </c>
       <c r="E25">
-        <v>11.70234217772378</v>
+        <v>7.669336056620649</v>
       </c>
       <c r="F25">
-        <v>18.25690375644544</v>
+        <v>22.78354466759642</v>
       </c>
       <c r="G25">
-        <v>20.77028412591103</v>
+        <v>32.63245994814191</v>
       </c>
       <c r="H25">
-        <v>10.78472132724196</v>
+        <v>8.680694708568042</v>
       </c>
       <c r="I25">
-        <v>17.43839844679339</v>
+        <v>13.52993430873439</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.31832871937795</v>
+        <v>25.77224191095326</v>
       </c>
       <c r="N25">
-        <v>16.98021316042236</v>
+        <v>15.18516251143233</v>
       </c>
       <c r="O25">
-        <v>15.50352933372446</v>
+        <v>16.84624685021899</v>
       </c>
     </row>
   </sheetData>
